--- a/Tables/Post_Hoc_Analysis.xlsx
+++ b/Tables/Post_Hoc_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/DAACS-Github/FIPSE-Efficacy/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C199C1-5574-A643-A279-C5BCB55CAD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C883E7-DCF2-7748-9274-4322F0D57AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="4080" windowWidth="22280" windowHeight="13860" xr2:uid="{0900210C-882B-2640-B76E-0F05E17BD28E}"/>
+    <workbookView xWindow="20040" yWindow="10040" windowWidth="20420" windowHeight="13860" xr2:uid="{0900210C-882B-2640-B76E-0F05E17BD28E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Test Anxiety</t>
   </si>
@@ -162,15 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -188,7 +182,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +505,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,89 +519,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.123702977622351</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.25770122505270798</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.48002479459323399</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.631244207549707</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="8">
+      <c r="F4" s="1"/>
+      <c r="G4" s="6">
         <v>1.00374205002785</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.24284275795899701</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>4.1333003234847601</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -610,29 +609,29 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.29290072929851801</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>7.3850867959078997E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>3.96611085817996</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="8">
+      <c r="F5" s="1"/>
+      <c r="G5" s="6">
         <v>0.14836137892239601</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>5.7026041996850102E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>2.60164257815036</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>9.2993023234114007E-3</v>
       </c>
     </row>
@@ -640,59 +639,59 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>-5.9492006938612096E-4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>5.2445254331624801E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>-1.1343639705211199E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.99095002150371003</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="8">
+      <c r="F6" s="1"/>
+      <c r="G6" s="6">
         <v>0.12728842404896401</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>3.9848483254183997E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>3.1943103891061901</v>
       </c>
-      <c r="J6" s="2">
-        <v>1.40847861295245E-3</v>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>0.157350991488136</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>7.6372732816365502E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.0603032742913499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>3.9454252809004199E-2</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>-9.2700074551855902E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>6.8253670553628604E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>-1.35816980683873</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.17445787887681299</v>
       </c>
     </row>
@@ -700,29 +699,29 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>7.7800610943015297E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5.7925850920965201E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.3431069152383699</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.179337353871236</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>1.8983751327538802E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>4.7257909997092298E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.40170526645606702</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0.68791441596435099</v>
       </c>
     </row>
@@ -730,29 +729,29 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>-0.12678818234731701</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>8.6539060445619001E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>-1.46509774539314</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.142997390312365</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>2.6137296472671798E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>7.8169426879798998E-2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.33436725221054903</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>0.738113448677299</v>
       </c>
     </row>
@@ -760,29 +759,29 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>3.3409005102646799E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.101442819537478</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.32933829377942198</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.74192263134606196</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>-6.52641574888983E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>8.3143949298764994E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>-0.78495378243799296</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>0.43250984020933197</v>
       </c>
     </row>
@@ -790,73 +789,73 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>-0.15718906820471401</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>8.10664037965763E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>-1.93901617492687</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>5.2591552574736002E-2</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>-2.3258219004473599E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>6.1821540340757798E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>-0.37621545623540398</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.70676924701096699</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>0.87546919267749501</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>5.5513749196855797E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>15.7703128566045</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8">
+      <c r="F13" s="1"/>
+      <c r="G13" s="6">
         <v>0.69713787999999999</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>3.4574439999999998E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>20.1633879</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -864,29 +863,29 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>4.3005942388919902E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.5878211198215201E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.70848786755991</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>6.7968259257305697E-3</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8">
+      <c r="F14" s="1"/>
+      <c r="G14" s="6">
         <v>6.3013109999999997E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>8.1537299999999997E-3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>7.7281364699999999</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -894,29 +893,29 @@
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>-1.6462028348123599E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1.1286957741652301E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>-1.4585000426974</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.14480579692232301</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8">
+      <c r="F15" s="1"/>
+      <c r="G15" s="6">
         <v>2.7728039999999999E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>5.7878799999999996E-3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>4.79070836</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -924,29 +923,29 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1.0857863612596001E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1.6413892986866699E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.66150447193019901</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.50833884947506902</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>1.008827E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>9.7445899999999992E-3</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>1.0352688699999999</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>0.30058264000000001</v>
       </c>
     </row>
@@ -954,29 +953,29 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1.20723683216748E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1.24659638398664E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.96842638698077299</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.33290830263465099</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <v>-1.5689999999999999E-4</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>6.7725099999999998E-3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>-2.31606E-2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>0.98152286</v>
       </c>
     </row>
@@ -984,29 +983,29 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>-4.9844947881280702E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1.8571473881617499E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-2.6839521838176901</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>7.3150991162062601E-3</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
         <v>-1.8565000000000002E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>1.117508E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>-1.6612880000000001</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>9.6704799999999994E-2</v>
       </c>
     </row>
@@ -1014,64 +1013,64 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>3.1394268577960002E-2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>2.17857449629042E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1.4410463645570399</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.14967430412583199</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
         <v>7.64747E-3</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>1.187127E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>0.64420014999999997</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>0.51946882999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>-6.0242067123987698E-2</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>1.7363254782865899E-2</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>-3.46951466630754</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
         <v>-1.1530200000000001E-2</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>8.8310799999999998E-3</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <v>-1.3056386</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="9">
         <v>0.19172259999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
